--- a/data/trans_camb/P25_3-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P25_3-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-10,44</t>
+          <t>-2,37</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-8,49</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,68</t>
+          <t>5,08</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,14</t>
+          <t>2,99</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-3,34</t>
+          <t>4,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,11</t>
+          <t>11,18</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2,27</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>8,44</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-31,76; 2,45</t>
+          <t>-19,81; 13,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-33,17; 5,2</t>
+          <t>-19,47; 18,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,62; 12,37</t>
+          <t>-20,48; 24,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 15,59</t>
+          <t>-12,05; 17,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-15,55; 4,74</t>
+          <t>-11,28; 17,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,56; 7,51</t>
+          <t>-6,39; 28,86</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-9,98; 11,57</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-9,51; 13,84</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-4,86; 22,72</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-36,12%</t>
+          <t>-14,56%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-29,36%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>14,99%</t>
+          <t>31,27%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>28,7%</t>
+          <t>17,39%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-14,51%</t>
+          <t>23,24%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-4,81%</t>
+          <t>64,98%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2,88%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>13,53%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>50,38%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-71,64; 19,31</t>
+          <t>-74,73; 175,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-70,26; 28,86</t>
+          <t>-70,27; 190,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-33,74; 89,77</t>
+          <t>-65,96; 248,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-29,51; 110,84</t>
+          <t>-53,76; 174,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-50,63; 25,67</t>
+          <t>-48,8; 181,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-44,35; 41,3</t>
+          <t>-33,44; 272,33</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-47,29; 97,96</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-44,09; 115,14</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-20,29; 194,34</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,35</t>
+          <t>-3,73</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,44</t>
+          <t>-7,11</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>-2,75</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,42</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>3,02</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>6,51</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-1,15</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-2,01</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1,93</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,03; 4,91</t>
+          <t>-11,51; 4,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,36; 2,87</t>
+          <t>-14,35; 0,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 6,48</t>
+          <t>-10,29; 5,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 8,65</t>
+          <t>-5,84; 7,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 4,18</t>
+          <t>-3,9; 9,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 4,17</t>
+          <t>-0,96; 13,64</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-5,96; 3,8</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-6,81; 2,86</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-3,1; 7,7</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-9,76%</t>
+          <t>-23,4%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-24,91%</t>
+          <t>-44,57%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,62%</t>
+          <t>-17,28%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>29,0%</t>
+          <t>11,16%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>27,93%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-0,48%</t>
+          <t>60,22%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-8,71%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-15,18%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>14,58%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-46,4; 45,81</t>
+          <t>-56,87; 35,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-55,15; 28,44</t>
+          <t>-69,83; 6,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-23,43; 70,43</t>
+          <t>-50,58; 52,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,07; 95,91</t>
+          <t>-41,81; 101,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-25,03; 37,49</t>
+          <t>-27,02; 126,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-29,47; 39,03</t>
+          <t>-11,78; 167,62</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-38,03; 35,07</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-43,41; 25,93</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-19,66; 72,25</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,79</t>
+          <t>3,59</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,96</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,84</t>
+          <t>5,49</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,77</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>8,54</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1,79</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,32</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>7,26</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 11,59</t>
+          <t>-5,4; 12,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 9,68</t>
+          <t>-5,25; 11,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 8,84</t>
+          <t>-3,31; 14,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 5,38</t>
+          <t>-5,92; 6,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 8,08</t>
+          <t>-5,83; 6,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 5,54</t>
+          <t>1,33; 17,7</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-3,28; 6,61</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-3,71; 6,35</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1,67; 13,36</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>38,33%</t>
+          <t>27,06%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>23,69%</t>
+          <t>22,25%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>29,72%</t>
+          <t>41,45%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-0,57%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>34,49%</t>
+          <t>-2,76%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>12,98%</t>
+          <t>105,56%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>17,31%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>12,74%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>70,16%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-16,22; 121,4</t>
+          <t>-31,1; 121,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-25,88; 104,78</t>
+          <t>-31,53; 129,22</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-29,07; 120,27</t>
+          <t>-20,08; 162,75</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-44,93; 79,92</t>
+          <t>-57,37; 154,85</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-9,52; 90,57</t>
+          <t>-55,3; 149,45</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-21,89; 65,82</t>
+          <t>9,89; 384,83</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-25,98; 85,53</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-29,81; 80,05</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>10,22; 163,95</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,46</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,27</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,83</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 3,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 1,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 6,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 6,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 3,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 3,07</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-6,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-15,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>18,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>23,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-33,52; 30,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-39,41; 16,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 58,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 63,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-15,95; 29,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-21,42; 24,59</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,81</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-2,42</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1,46</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1,04</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1,98</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>8,65</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-0,06</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>5,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-6,16; 4,49</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-7,65; 2,53</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-4,18; 7,27</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-3,25; 5,0</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-2,56; 6,62</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>3,43; 14,62</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-3,71; 3,59</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-3,71; 3,16</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1,22; 9,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-5,41%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-16,19%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>9,74%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>9,9%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>18,78%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>82,01%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1,69%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-0,46%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>41,73%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-34,88; 37,55</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-42,77; 20,73</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-24,73; 57,65</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-26,65; 61,06</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-19,89; 82,33</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>27,6; 178,09</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-25,4; 32,15</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-25,82; 28,56</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>8,71; 85,66</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
